--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Thbs2</t>
+  </si>
+  <si>
+    <t>Itga4</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Thbs2</t>
-  </si>
-  <si>
-    <t>Itga4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H2">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I2">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J2">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>0.7178146759175001</v>
+        <v>2.011201677399</v>
       </c>
       <c r="R2">
-        <v>2.871258703670001</v>
+        <v>8.044806709595999</v>
       </c>
       <c r="S2">
-        <v>6.193205123660021E-05</v>
+        <v>0.0001454810918725829</v>
       </c>
       <c r="T2">
-        <v>2.875566675638731E-05</v>
+        <v>6.905517599689979E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H3">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I3">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J3">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>0.06431521875916667</v>
+        <v>0.06923207899633332</v>
       </c>
       <c r="R3">
-        <v>0.385891312555</v>
+        <v>0.4153924739779999</v>
       </c>
       <c r="S3">
-        <v>5.54902756535958E-06</v>
+        <v>5.00793061092765E-06</v>
       </c>
       <c r="T3">
-        <v>3.864702951995589E-06</v>
+        <v>3.565654394669593E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H4">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I4">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J4">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>111.7485964717908</v>
+        <v>141.8936280742293</v>
       </c>
       <c r="R4">
-        <v>670.4915788307451</v>
+        <v>851.3617684453759</v>
       </c>
       <c r="S4">
-        <v>0.009641513380125619</v>
+        <v>0.01026393333596338</v>
       </c>
       <c r="T4">
-        <v>0.00671497569312613</v>
+        <v>0.007307936520948393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H5">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I5">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J5">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>3.135732877523751</v>
+        <v>6.5361771242655</v>
       </c>
       <c r="R5">
-        <v>12.542931510095</v>
+        <v>26.144708497062</v>
       </c>
       <c r="S5">
-        <v>0.0002705466685908394</v>
+        <v>0.0004727970324390786</v>
       </c>
       <c r="T5">
-        <v>0.0001256175064237386</v>
+        <v>0.0002244214823084201</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H6">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I6">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J6">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>1.388688043353334</v>
+        <v>138.3419255703587</v>
       </c>
       <c r="R6">
-        <v>8.332128260120001</v>
+        <v>830.0515534221519</v>
       </c>
       <c r="S6">
-        <v>0.0001198140717068557</v>
+        <v>0.01000701948984034</v>
       </c>
       <c r="T6">
-        <v>8.344629597926512E-05</v>
+        <v>0.007125013462373824</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.2625225</v>
+        <v>2.435491</v>
       </c>
       <c r="H7">
-        <v>4.525045</v>
+        <v>4.870982</v>
       </c>
       <c r="I7">
-        <v>0.02393286306832829</v>
+        <v>0.02483156813220287</v>
       </c>
       <c r="J7">
-        <v>0.01659121259875097</v>
+        <v>0.01753337685533581</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>160.3353153914925</v>
+        <v>54.43156284513799</v>
       </c>
       <c r="R7">
-        <v>962.0118923489551</v>
+        <v>326.5893770708279</v>
       </c>
       <c r="S7">
-        <v>0.01383350786910302</v>
+        <v>0.003937329251476553</v>
       </c>
       <c r="T7">
-        <v>0.009634552733513454</v>
+        <v>0.002803384559313602</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H8">
         <v>244.890976</v>
       </c>
       <c r="I8">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J8">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>25.89828190622933</v>
+        <v>67.40942472668799</v>
       </c>
       <c r="R8">
-        <v>155.389691437376</v>
+        <v>404.456548360128</v>
       </c>
       <c r="S8">
-        <v>0.00223446771954946</v>
+        <v>0.00487608817253174</v>
       </c>
       <c r="T8">
-        <v>0.001556228346348476</v>
+        <v>0.003471782373191394</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H9">
         <v>244.890976</v>
       </c>
       <c r="I9">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J9">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,22 +1001,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
-        <v>2.320450838033777</v>
+        <v>2.320450838033778</v>
       </c>
       <c r="R9">
         <v>20.884057542304</v>
       </c>
       <c r="S9">
-        <v>0.0002002052688730994</v>
+        <v>0.0001678507557682549</v>
       </c>
       <c r="T9">
-        <v>0.000209153915124442</v>
+        <v>0.0001792649992936385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H10">
         <v>244.890976</v>
       </c>
       <c r="I10">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J10">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>4031.815942398659</v>
+        <v>4755.847187456796</v>
       </c>
       <c r="R10">
-        <v>36286.34348158793</v>
+        <v>42802.62468711117</v>
       </c>
       <c r="S10">
-        <v>0.3478594683258798</v>
+        <v>0.3440161418844645</v>
       </c>
       <c r="T10">
-        <v>0.3634078669507008</v>
+        <v>0.3674100432235423</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H11">
         <v>244.890976</v>
       </c>
       <c r="I11">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J11">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>113.1351820592693</v>
+        <v>219.072977518736</v>
       </c>
       <c r="R11">
-        <v>678.811092355616</v>
+        <v>1314.437865112416</v>
       </c>
       <c r="S11">
-        <v>0.009761146054865635</v>
+        <v>0.01584673298921513</v>
       </c>
       <c r="T11">
-        <v>0.006798295652484254</v>
+        <v>0.01128289856909258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H12">
         <v>244.890976</v>
       </c>
       <c r="I12">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J12">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>50.10295224265955</v>
+        <v>4636.804813299726</v>
       </c>
       <c r="R12">
-        <v>450.926570183936</v>
+        <v>41731.24331969753</v>
       </c>
       <c r="S12">
-        <v>0.004322812989900413</v>
+        <v>0.3354051633008188</v>
       </c>
       <c r="T12">
-        <v>0.004516031302660439</v>
+        <v>0.3582134979792299</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>81.63032533333332</v>
+        <v>81.63032533333333</v>
       </c>
       <c r="H13">
         <v>244.890976</v>
       </c>
       <c r="I13">
-        <v>0.8634819757265425</v>
+        <v>0.832279398761298</v>
       </c>
       <c r="J13">
-        <v>0.897900075321156</v>
+        <v>0.8814990017780804</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>5784.792839775136</v>
+        <v>1824.382099318122</v>
       </c>
       <c r="R13">
-        <v>52063.13555797622</v>
+        <v>16419.4388938631</v>
       </c>
       <c r="S13">
-        <v>0.499103875367474</v>
+        <v>0.1319674216584996</v>
       </c>
       <c r="T13">
-        <v>0.5214124991538376</v>
+        <v>0.1409415146337305</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H14">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I14">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J14">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>2.7312219881</v>
+        <v>11.5559603784435</v>
       </c>
       <c r="R14">
-        <v>10.9248879524</v>
+        <v>46.223841513774</v>
       </c>
       <c r="S14">
-        <v>0.000235646032019801</v>
+        <v>0.0008359050971290241</v>
       </c>
       <c r="T14">
-        <v>0.0001094127940852351</v>
+        <v>0.0003967771540339177</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H15">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I15">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J15">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>0.2447137757666666</v>
+        <v>0.3977936030928333</v>
       </c>
       <c r="R15">
-        <v>1.4682826546</v>
+        <v>2.386761618557</v>
       </c>
       <c r="S15">
-        <v>2.111356399855073E-05</v>
+        <v>2.877456217753205E-05</v>
       </c>
       <c r="T15">
-        <v>1.470485632865283E-05</v>
+        <v>2.048753308584788E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H16">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I16">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J16">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>425.1936245702333</v>
+        <v>815.2922515955572</v>
       </c>
       <c r="R16">
-        <v>2551.1617474214</v>
+        <v>4891.753509573344</v>
       </c>
       <c r="S16">
-        <v>0.0366851141747706</v>
+        <v>0.05897449683453474</v>
       </c>
       <c r="T16">
-        <v>0.02554989453117699</v>
+        <v>0.04198993359705015</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H17">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I17">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J17">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>11.93118902585</v>
+        <v>37.55555930730075</v>
       </c>
       <c r="R17">
-        <v>47.7247561034</v>
+        <v>150.222237229203</v>
       </c>
       <c r="S17">
-        <v>0.001029406384200802</v>
+        <v>0.002716596667211181</v>
       </c>
       <c r="T17">
-        <v>0.0004779636125386768</v>
+        <v>0.001289480705376897</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H18">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I18">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J18">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>5.283836407733333</v>
+        <v>794.8848832684647</v>
       </c>
       <c r="R18">
-        <v>31.7030184464</v>
+        <v>4769.309299610788</v>
       </c>
       <c r="S18">
-        <v>0.0004558820516051481</v>
+        <v>0.05749832154101026</v>
       </c>
       <c r="T18">
-        <v>0.0003175058494210331</v>
+        <v>0.04093889448896569</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.608699999999999</v>
+        <v>13.9938415</v>
       </c>
       <c r="H19">
-        <v>17.2174</v>
+        <v>27.987683</v>
       </c>
       <c r="I19">
-        <v>0.09106244834971486</v>
+        <v>0.1426771967699729</v>
       </c>
       <c r="J19">
-        <v>0.06312811116745466</v>
+        <v>0.1007432573856104</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>610.0618356771</v>
+        <v>312.752813725097</v>
       </c>
       <c r="R19">
-        <v>3660.3710140626</v>
+        <v>1876.516882350582</v>
       </c>
       <c r="S19">
-        <v>0.05263528614311996</v>
+        <v>0.02262310206791014</v>
       </c>
       <c r="T19">
-        <v>0.03665862952390407</v>
+        <v>0.01610768390709795</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H20">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I20">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J20">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>0.6088557218983333</v>
+        <v>0.017157418053</v>
       </c>
       <c r="R20">
-        <v>3.65313433139</v>
+        <v>0.102944508318</v>
       </c>
       <c r="S20">
-        <v>5.253122432486824E-05</v>
+        <v>1.241088817752419E-06</v>
       </c>
       <c r="T20">
-        <v>3.658615411961916E-05</v>
+        <v>8.836571711952047E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H21">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I21">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J21">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>0.05455264465944443</v>
+        <v>0.0005906139276666666</v>
       </c>
       <c r="R21">
-        <v>0.4909738019349999</v>
+        <v>0.005315525349</v>
       </c>
       <c r="S21">
-        <v>4.706726258866657E-06</v>
+        <v>4.272229883142405E-08</v>
       </c>
       <c r="T21">
-        <v>4.917104479827465E-06</v>
+        <v>4.562751495984802E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H22">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I22">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J22">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>94.78598677157387</v>
+        <v>1.210484419978667</v>
       </c>
       <c r="R22">
-        <v>853.0738809441649</v>
+        <v>10.894359779808</v>
       </c>
       <c r="S22">
-        <v>0.008178003022500905</v>
+        <v>8.756088317358234E-05</v>
       </c>
       <c r="T22">
-        <v>0.008543538138048527</v>
+        <v>9.351522778922901E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H23">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I23">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J23">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>2.659751839685833</v>
+        <v>0.05575966082850001</v>
       </c>
       <c r="R23">
-        <v>15.958511038115</v>
+        <v>0.334557964971</v>
       </c>
       <c r="S23">
-        <v>0.0002294796870815117</v>
+        <v>4.033397759624953E-06</v>
       </c>
       <c r="T23">
-        <v>0.000159824548290827</v>
+        <v>2.871785486738841E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H24">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I24">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J24">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>1.177895478448889</v>
+        <v>1.180185099257333</v>
       </c>
       <c r="R24">
-        <v>10.60105930604</v>
+        <v>10.621665893316</v>
       </c>
       <c r="S24">
-        <v>0.0001016271825724563</v>
+        <v>8.53691694776999E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001061696489694718</v>
+        <v>9.117447244174232E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>1.919088333333333</v>
+        <v>0.020777</v>
       </c>
       <c r="H25">
-        <v>5.757264999999999</v>
+        <v>0.062331</v>
       </c>
       <c r="I25">
-        <v>0.02030003162297525</v>
+        <v>0.0002118363365263017</v>
       </c>
       <c r="J25">
-        <v>0.02110918401968333</v>
+        <v>0.0002243639809734334</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>135.997601433415</v>
+        <v>0.4643517800859999</v>
       </c>
       <c r="R25">
-        <v>1223.978412900735</v>
+        <v>4.179166020773999</v>
       </c>
       <c r="S25">
-        <v>0.01173368378023664</v>
+        <v>3.358907499881065E-05</v>
       </c>
       <c r="T25">
-        <v>0.01225814842577506</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.346763</v>
-      </c>
-      <c r="I26">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J26">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.317263</v>
-      </c>
-      <c r="N26">
-        <v>0.634526</v>
-      </c>
-      <c r="O26">
-        <v>0.002587741009497455</v>
-      </c>
-      <c r="P26">
-        <v>0.001733186563985812</v>
-      </c>
-      <c r="Q26">
-        <v>0.03667168988966667</v>
-      </c>
-      <c r="R26">
-        <v>0.220030139338</v>
-      </c>
-      <c r="S26">
-        <v>3.163982366725222E-06</v>
-      </c>
-      <c r="T26">
-        <v>2.203602676093858E-06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.346763</v>
-      </c>
-      <c r="I27">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J27">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M27">
-        <v>0.02842633333333333</v>
-      </c>
-      <c r="N27">
-        <v>0.08527899999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.0002318580752130287</v>
-      </c>
-      <c r="P27">
-        <v>0.0002329367385893502</v>
-      </c>
-      <c r="Q27">
-        <v>0.003285733541888888</v>
-      </c>
-      <c r="R27">
-        <v>0.029571601877</v>
-      </c>
-      <c r="S27">
-        <v>2.834885171523942E-07</v>
-      </c>
-      <c r="T27">
-        <v>2.961597044322976E-07</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.346763</v>
-      </c>
-      <c r="I28">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J28">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>49.39115366666667</v>
-      </c>
-      <c r="N28">
-        <v>148.173461</v>
-      </c>
-      <c r="O28">
-        <v>0.4028566641859401</v>
-      </c>
-      <c r="P28">
-        <v>0.4047308569616938</v>
-      </c>
-      <c r="Q28">
-        <v>5.709008206304778</v>
-      </c>
-      <c r="R28">
-        <v>51.381073856743</v>
-      </c>
-      <c r="S28">
-        <v>0.000492565282663119</v>
-      </c>
-      <c r="T28">
-        <v>0.0005145816486411728</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.346763</v>
-      </c>
-      <c r="I29">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J29">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.3859455</v>
-      </c>
-      <c r="N29">
-        <v>2.771891</v>
-      </c>
-      <c r="O29">
-        <v>0.01130440047304115</v>
-      </c>
-      <c r="P29">
-        <v>0.007571327633592944</v>
-      </c>
-      <c r="Q29">
-        <v>0.1601982064721666</v>
-      </c>
-      <c r="R29">
-        <v>0.961189238833</v>
-      </c>
-      <c r="S29">
-        <v>1.382167830236167E-05</v>
-      </c>
-      <c r="T29">
-        <v>9.626313855445606E-06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.346763</v>
-      </c>
-      <c r="I30">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J30">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.6137786666666667</v>
-      </c>
-      <c r="N30">
-        <v>1.841336</v>
-      </c>
-      <c r="O30">
-        <v>0.005006257352694774</v>
-      </c>
-      <c r="P30">
-        <v>0.005029547749002214</v>
-      </c>
-      <c r="Q30">
-        <v>0.07094524392977777</v>
-      </c>
-      <c r="R30">
-        <v>0.638507195368</v>
-      </c>
-      <c r="S30">
-        <v>6.121056909899519E-06</v>
-      </c>
-      <c r="T30">
-        <v>6.394651972004235E-06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.1155876666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.346763</v>
-      </c>
-      <c r="I31">
-        <v>0.001222681232438974</v>
-      </c>
-      <c r="J31">
-        <v>0.001271416892954806</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>70.86573300000001</v>
-      </c>
-      <c r="N31">
-        <v>212.597199</v>
-      </c>
-      <c r="O31">
-        <v>0.5780130789036134</v>
-      </c>
-      <c r="P31">
-        <v>0.5807021443531359</v>
-      </c>
-      <c r="Q31">
-        <v>8.191204724093</v>
-      </c>
-      <c r="R31">
-        <v>73.72084251683701</v>
-      </c>
-      <c r="S31">
-        <v>0.0007067257436797157</v>
-      </c>
-      <c r="T31">
-        <v>0.0007383145161056575</v>
+        <v>3.587321056956814E-05</v>
       </c>
     </row>
   </sheetData>
